--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Case</t>
   </si>
@@ -41,16 +41,103 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>bravo</t>
-  </si>
-  <si>
     <t>GANGSTER</t>
   </si>
   <si>
-    <t>When user id and password are valid For Multi_Bill</t>
-  </si>
-  <si>
-    <t>When user id and password are valid For Bill_Payment</t>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>NOTHINGIB</t>
+  </si>
+  <si>
+    <t>IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>NRPBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_Bravo</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_NOTHINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Home_NRPBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_Bravo</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_NOTHINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Pay_NRPBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_NOTHINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Bene_NRPBROIB</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>When user id and password are valid For Multi_Bill_Home</t>
   </si>
 </sst>
 </file>
@@ -368,21 +455,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,10 +483,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -409,10 +500,13 @@
       <c r="D2">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -422,6 +516,366 @@
       </c>
       <c r="D3">
         <v>12345678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>12345678</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>12345678</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>12345678</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>12345678</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>12345678</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>12345678</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>12345678</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>12345678</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>12345678</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>12345678</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>12345678</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>12345678</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>12345678</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>12345678</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>12345678</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>12345678</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>12345678</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>12345678</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>12345678</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>12345678</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>12345678</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
